--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\smspp-project\PyPSA_SMS_interface\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\smspp-project\transformation_pypsa_smspp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,11 +493,10 @@
         <v>227357.55810393623</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="1">D3</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="2">F3 / (1 - 1/(1 + F3) ^E3) *100</f>
+        <f t="shared" ref="I3:I8" si="1">F3 / (1 - 1/(1 + F3) ^E3) *100</f>
         <v>9.3678779051968117</v>
       </c>
     </row>
@@ -525,11 +524,10 @@
         <v>129223.5909576603</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
         <v>14.902948869707537</v>
       </c>
     </row>
@@ -557,11 +555,11 @@
         <v>206381.70887226312</v>
       </c>
       <c r="H5">
+        <f t="shared" ref="H3:H5" si="2">D5</f>
+        <v>0.01</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
         <v>8.0169867669210504</v>
       </c>
     </row>
@@ -592,7 +590,7 @@
         <v>0.01</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.185220882315059</v>
       </c>
     </row>
@@ -623,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.3678779051968117</v>
       </c>
     </row>
@@ -655,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.5803264560679793</v>
       </c>
     </row>

--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>battery link</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +558,7 @@
         <v>206381.70887226312</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H3:H5" si="2">D5</f>
+        <f t="shared" ref="H5" si="2">D5</f>
         <v>0.01</v>
       </c>
       <c r="I5">
@@ -655,6 +658,37 @@
       <c r="I8">
         <f t="shared" si="1"/>
         <v>8.5803264560679793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>40000</v>
+      </c>
+      <c r="C9">
+        <v>1.25</v>
+      </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0.08</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="3" xml:space="preserve"> (I9 + C9) /100*B9</f>
+        <v>6461.1795478830145</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="4">F9 / (1 - 1/(1 + F9) ^E9) *100</f>
+        <v>14.902948869707537</v>
       </c>
     </row>
   </sheetData>

--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,7 @@
         <v>227357.55810393623</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I8" si="1">F3 / (1 - 1/(1 + F3) ^E3) *100</f>
@@ -527,7 +527,7 @@
         <v>129223.5909576603</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>

--- a/data/costs.xlsx
+++ b/data/costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\smspp-project\transformation_pypsa_smspp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\sms\transformation_pypsa_smspp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,7 +74,7 @@
     <t>store</t>
   </si>
   <si>
-    <t>battery link</t>
+    <t>battery_link</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
         <v>6461.1795478830145</v>
       </c>
       <c r="H9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9" si="4">F9 / (1 - 1/(1 + F9) ^E9) *100</f>
